--- a/meta/en/3-1-1.xlsx
+++ b/meta/en/3-1-1.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -113,12 +112,6 @@
     <t xml:space="preserve">Jmaatkulova@stat.kg </t>
   </si>
   <si>
-    <t>+996 (0312) 32 46 36</t>
-  </si>
-  <si>
-    <t>www.stat.kg</t>
-  </si>
-  <si>
     <t>WHO defines maternal mortality as death of a woman while pregnant or within 42 days of termination of pregnancy, irrespective of the duration and site of the pregnancy, from any cause related to or aggravated by the pregnancy or its management (from direct or indirect obstetric death), but not from accidental or incidental causes.</t>
   </si>
   <si>
@@ -158,18 +151,32 @@
 http://www.stat.kg/ru/about/pravovye-osnovy-organov-gosudarstvennoj-statistiki/; https://unstats.un.org/sdgs/Metadata; http://www.stat.kg/ru/statistics/download/methodology/68/. 
 National Statistical Committee publications: «Social economic situation of the Kyrgyz Republic» monthly report, statistical collections: «Demographic yearbook of the Kyrgyz Republic», «Social trends of the Kyrgyz Republic», «Women and men of the Kyrgyz Republic», «Health of population and healthcare in the Kyrgyz Republic», «Young people in KR» available on the official website of NSC KR: http://www.stat.kg/ru/publications/
 KR National SDG Reporting Platform: https://sustainabledevelopment-kyrgyzstan.github.io</t>
+  </si>
+  <si>
+    <t>www.stat.gov.kg</t>
+  </si>
+  <si>
+    <t>996 (0312) 32 46 36</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -236,26 +243,30 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -566,7 +577,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,7 +597,7 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -640,8 +651,8 @@
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>32</v>
+      <c r="B9" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -649,7 +660,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -663,7 +674,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -671,7 +682,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -679,7 +690,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -693,7 +704,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -701,7 +712,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -715,7 +726,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="120" customHeight="1" x14ac:dyDescent="0.25">
@@ -723,7 +734,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -731,7 +742,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -745,7 +756,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -753,7 +764,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.25">
@@ -761,7 +772,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="243.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -769,7 +780,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/meta/en/3-1-1.xlsx
+++ b/meta/en/3-1-1.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" codeName="Workbook________" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист 1" sheetId="2" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
@@ -103,72 +103,75 @@
     <t>3.1.1: Maternal mortality ratio</t>
   </si>
   <si>
-    <t>National Statistical Committee of the Kyrgyz Republic (Demographic Statistics Division)</t>
-  </si>
-  <si>
-    <t>Maatkulova J.B.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jmaatkulova@stat.kg </t>
-  </si>
-  <si>
-    <t>WHO defines maternal mortality as death of a woman while pregnant or within 42 days of termination of pregnancy, irrespective of the duration and site of the pregnancy, from any cause related to or aggravated by the pregnancy or its management (from direct or indirect obstetric death), but not from accidental or incidental causes.</t>
-  </si>
-  <si>
-    <t>Mortality is the process of generation extinction, one of the two main sub-processes of population reproduction. Among causes are diseases, pathological conditions or injuries that lead to or contribute to death, as well as accidents or acts of violence that cause fatal injuries. Cause of death has been coded since 2000. Based on the World Health Organization 10 Revision of International Statistical Classification of Diseases, Injuries, and Causes of Death (ICD-10).</t>
-  </si>
-  <si>
-    <t>The indicator analysis allows assessing State policy effectiveness of in the area of maternal and child protection in the country, since the level of medical care for pregnant women and mothers determines health of future generations. Maternal mortality rates in Kyrgyzstan, although decreasing slightly over the years, remain high. The death of a woman while pregnant or within 42 days of termination of pregnancy is considered to be a maternal death. Thus, if the deceased was pregnant (irrespective of the duration and site of the pregnancy) or died within 42 days after giving birth, the medical death certificate must include an indication of the pregnancy period or post-natal period, even if pregnancy was not related to the main cause of death.</t>
-  </si>
-  <si>
-    <t>Cause of death information is obtained from medical death certificates drawn up by medics or paramedics on disease, accident, homicide, suicide and other external influences resulting in death. These documents, along with civil registration of deaths drawn up by civil registry offices (which are subordinate to the State Registration Service), are sent to statistical agencies for calculation. Of causes listed, one is selected for statistical purposes - the primary, i.e. the disease or injury that caused events directly leading to death.</t>
-  </si>
-  <si>
-    <t>Data are obtained from Death Certificates and attached to them Medical Death Certificates submitted by the Civil Registry Office (SRS under the GKR) on a regular basis (monthly).
-Primary processing and data consolidation are carried out at the level of local government statistical agencies. The national data set is processed by the National Statistical Committee. The period between data collection and submission is 38 days.</t>
-  </si>
-  <si>
-    <t>Maternal mortality ratio (MMR): Number of maternal deaths during a given time period per 100,000 live births during the same time period.
-The maternal mortality ratio can be calculated by dividing recorded (or estimated) maternal deaths by total recorded (or estimated) live births in the same period and multiplying by 100 000. Measurement requires information on pregnancy status, timing of death (during pregnancy, childbirth, or within 42 days of termination of pregnancy), and cause of death.</t>
-  </si>
-  <si>
-    <t>This indicator reflects maternal mortality risks in relation to the number of children born alive and essentially records the risk of death from pregnancy or live birth. According to experts, coverage of civil registration system is considered satisfactory though needs to be improved due to being paper-based. Since December 2014 an automated electronic system AIS "Registration Office" has been in operation as a component of SRS information systems. However, upon receipt by statistical authorities paper-based data then entered into special software by statistical agencies employees, which sometimes leads to errors and omissions. Soon (until the end of 2020th) a database on natural and migratory population movements being derived from the SRS data will become one of population statistics sources.</t>
-  </si>
-  <si>
-    <t>Logical and arithmetic control of recorded data is carried out. Data control in data records is carried out by logical control procedure embedded in the data input and processing software. The causes of death codes are checked along diagnoses recorded in death report, according to ICD-10, and results tables are analyzed for causes of death.</t>
-  </si>
-  <si>
-    <t>Data are distributed via the National Statistical Committee publications: «Social economic situation of the Kyrgyz Republic» monthly report, statistical collections: «Demographic yearbook of the Kyrgyz Republic», «Social trends of the Kyrgyz Republic», «Women and men of the Kyrgyz Republic», «Health of  population and healthcare in the Kyrgyz Republic», «Young people in KR» available on the official website of NSC KR: http://www.stat.kg/ru/publications/ Time series have been available since 1990.</t>
-  </si>
-  <si>
-    <t>Indicator is calculated nationally and by regions (Republic, regions, city of Bishkek, city of Osh).</t>
-  </si>
-  <si>
-    <t>International definition of the indicator is used for national statistics. Data coding and compilation on deaths by cause of death is done by state statistics authorities in accordance with the WHO International Statistical Classification of Diseases and Causes of Death (ICD-10), since 2000 report. By agreement with the National Statistical Committee, database on mortality is submitted to the Centre for Electronic Health of the Ministry of Health of the Kyrgyz Republic: Form 2 «Information on the number of births, marriages, divorces and deaths by cause of death» is submitted monthly, with a delay of 1.5 months from the reporting month and form C52 «Population mortality by cause of death» submitted annually, in June following the reporting year.</t>
-  </si>
-  <si>
-    <t>References to RLA and methodology: 
-http://www.stat.kg/ru/about/pravovye-osnovy-organov-gosudarstvennoj-statistiki/; https://unstats.un.org/sdgs/Metadata; http://www.stat.kg/ru/statistics/download/methodology/68/. 
-National Statistical Committee publications: «Social economic situation of the Kyrgyz Republic» monthly report, statistical collections: «Demographic yearbook of the Kyrgyz Republic», «Social trends of the Kyrgyz Republic», «Women and men of the Kyrgyz Republic», «Health of population and healthcare in the Kyrgyz Republic», «Young people in KR» available on the official website of NSC KR: http://www.stat.kg/ru/publications/
-KR National SDG Reporting Platform: https://sustainabledevelopment-kyrgyzstan.github.io</t>
-  </si>
-  <si>
-    <t>www.stat.gov.kg</t>
-  </si>
-  <si>
-    <t>996 (0312) 32 46 36</t>
+    <t>Ministry OF Health OF THE Kyrgyz Republic</t>
+  </si>
+  <si>
+    <t>Asylbesheva Raisa Beishenalievna</t>
+  </si>
+  <si>
+    <t>r_asylbasheva@mz.med.kg</t>
+  </si>
+  <si>
+    <t>(0709) 331147</t>
+  </si>
+  <si>
+    <t>www.med.kg</t>
+  </si>
+  <si>
+    <t>According to the WHO definition, maternal mortality refers to the death of a woman caused by pregnancy (regardless of its duration and location) and occurring during childbirth or within 42 days after its end from any cause related to pregnancy, burdened by it or its management, but not from an accident or accidental cause.</t>
+  </si>
+  <si>
+    <t>Population mortality is the process of generation extinction, one of the two main subprocesses of population reproduction. Causes of death are diseases, pathological conditions, or injuries that led to or contributed to death, as well as the circumstances of an accident or act of violence that caused a fatal injury. Causes of death have been coded since 2000 based on the International Statistical Classification of Diseases and Causes of Death, 10th Revision (ICD-10) The World Health Organization.</t>
+  </si>
+  <si>
+    <t>The analysis of the indicator makes it possible to assess the level of effectiveness of the state policy in the field of maternal and child health in the republic, since the level of medical care for pregnant women and women in childbirth determines the fate and health of future generations. Maternal mortality rates in Kyrgyzstan, despite a slight decrease, remain high. The death of a woman in any period of pregnancy, in childbirth, or within 42 days of its end refers to maternal mortality. Therefore, if the deceased was pregnant (regardless of the duration and location of pregnancy) or died in childbirth or within 42 days after giving birth, the medical death certificate must contain an entry about the duration of pregnancy or the number of days of the postpartum period, even if the pregnancy was not related to the underlying cause of death.</t>
+  </si>
+  <si>
+    <t>The source of information about the causes of death is the entries in medical death certificates drawn up by a doctor or secondary medical staff regarding illness, accident, murder, suicide and other external influences that caused death. Of the diseases listed in them, one is selected for statistical purposes – the main (initial), i.e. the disease or injury that caused the events that directly led to death.</t>
+  </si>
+  <si>
+    <t>Data on maternal mortality is recorded in the patient's outpatient record or the inpatient's medical record. The data above from the above-mentioned accounting documents is registered in the automated information system of the Ministry of Health of the Kyrgyz Republic AIS "Medical Certificate". In this system, an electronic form "Medical death Certificate" is generated, which is transmitted electronically to the AIS registry office. In the Ministry of Health of the Kyrgyz Republic, information on all cases of maternal mortality is generated from the AIS "Medical Certificate", which is used for decision-making, and is also transmitted to WHO.</t>
+  </si>
+  <si>
+    <t>The maternal mortality rate (CMR) is defined as the number of maternal deaths per 100,000 live births over the same time period. The maternal mortality rate can be calculated by dividing the registered (or estimated) maternal mortality by the total number of registered (or estimated) live births over the same period, and multiplied by 100,000. The measurement requires information about the pregnancy status, the timing of death (during pregnancy, childbirth, or within 42 days of termination of pregnancy), and its cause.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This indicator reflects the risk of maternal mortality in relation to the number of children born alive, and essentially captures the risk of death as a result of one pregnancy or one live-born child. </t>
+  </si>
+  <si>
+    <t>Control is carried out in AIS "Medical certificate" on a regular basis. The data is compared with the AIS Registry Office, which will contribute to the completeness of registration of maternal deaths in official statistics. The affixed cause of death codes are being adjusted to match the diagnoses recorded in the AIS "Medical Certificate".</t>
+  </si>
+  <si>
+    <t>The data is distributed in the statistical publications of the Central Economic Zone under the Ministry of Health: "Public Health and Healthcare in the Kyrgyz Republic", on the official website of the Central Economic Zone under the Ministry of Health of the Kyrgyz Republic: http://www.cez.med.kg/</t>
+  </si>
+  <si>
+    <t>The indicator is calculated by territory and regions (Republic, regions, Bishkek, Osh) on a monthly basis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The national definition of the indicator used in statistics corresponds to its international definition. Coding and development of data on deaths due to causes of death are carried out by specialists of the health organization on the basis of the WHO International Statistical Classification of Diseases and Causes of Death 10th revision (ICD-10). </t>
+  </si>
+  <si>
+    <t>References to the NPA and methodology:                                                       https://mkb-10.com / Order of the Ministry of Health of the Kyrgyz Republic No. 362 dated 03/24/2022 "On approval of forms of primary medical registration of births and deaths"; "Public health and healthcare in the Kyrgyz Republic" on the official website of the Central Economic Zone under the Ministry of Health of the Kyrgyz Republic: http://www.cez.med.kg/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -243,30 +246,34 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -574,10 +581,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Worksheet____1"/>
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,7 +605,7 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -627,7 +635,7 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="8" t="s">
         <v>29</v>
       </c>
     </row>
@@ -635,7 +643,7 @@
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -643,7 +651,7 @@
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -652,15 +660,15 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>44</v>
+      <c r="B10" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -669,12 +677,12 @@
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -682,7 +690,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -690,7 +698,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -699,20 +707,20 @@
       </c>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:2" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -726,23 +734,23 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -751,12 +759,12 @@
       </c>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -764,15 +772,15 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="243.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -780,7 +788,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
